--- a/Multiple Choice Datasets/WS_MCQ.xlsx
+++ b/Multiple Choice Datasets/WS_MCQ.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19335" windowHeight="13395"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="18300"/>
   </bookViews>
   <sheets>
     <sheet name="Decarbonization_MCQA_all - Copy" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3875" uniqueCount="3837">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4405" uniqueCount="4361">
   <si>
     <t>ID</t>
   </si>
@@ -11530,6 +11530,1578 @@
   </si>
   <si>
     <t>Costs potentially increasing mistakes through legislative or regulated delays</t>
+  </si>
+  <si>
+    <t>What types of materials are tremendously used in water, stormwater, and wastewater systems?</t>
+  </si>
+  <si>
+    <t>How does reusing water for non-potable purposes impact aquifers and water demand management?</t>
+  </si>
+  <si>
+    <t>What usually influences affluent consumer groups to replace inefficient devices before their end-of-life?</t>
+  </si>
+  <si>
+    <t>Which segment of the population has primarily been early adopters of electric vehicles (EVs)?</t>
+  </si>
+  <si>
+    <t>Which of the performance target was most crucial for the adoption of electric vehicles?</t>
+  </si>
+  <si>
+    <t>Which source of water typically requires less energy input for the treatment process due to its naturally higher quality?</t>
+  </si>
+  <si>
+    <t>By approximately how much more electricity does groundwater extraction require compared to surface water extraction?</t>
+  </si>
+  <si>
+    <t>How do organizations with limited land for carbon sequestration typically achieve net zero emissions?</t>
+  </si>
+  <si>
+    <t>What is the primary advantage of using Emission Factors (EFs) in quantifying GHG emissions?</t>
+  </si>
+  <si>
+    <t>Which measurement method is more likely to provide accurate quantification results for the emission flux of nitrous oxide?</t>
+  </si>
+  <si>
+    <t>What is a key feasible strategy for reducing the carbon footprint in secondary wastewater treatment?</t>
+  </si>
+  <si>
+    <t>What is crucial for maintaining anaerobic digestion performance and maximizing biogas production in a WRRF?</t>
+  </si>
+  <si>
+    <t>What percentage of total methane emissions from a WRRF is roughly attributed to the anaerobic digestion complex?</t>
+  </si>
+  <si>
+    <t>What was NOT one of the operational issues reduced due to the new sludge treatment strategy?</t>
+  </si>
+  <si>
+    <t>Which factor has a low concentration impact threshold but requires substantial energy for advanced treatment?</t>
+  </si>
+  <si>
+    <t>What is one issue related to the financial viability of anaerobic digestion products?</t>
+  </si>
+  <si>
+    <t>What potential issue arises with the use of co-substrates that have elevated protein concentrations?</t>
+  </si>
+  <si>
+    <t>Which type of ionic liquids has been found to be more effective than traditional solvents for the recovery of short-chain organic acids?</t>
+  </si>
+  <si>
+    <t>What do integrated techno-economic and LCA platforms primarily aim to achieve in conceptual designs for modern WRRFs?</t>
+  </si>
+  <si>
+    <t>Which material can be used for the adsorption of ammonium in nitrogen recovery?</t>
+  </si>
+  <si>
+    <t>Which phenomenon in MECC (microbial electrolytic carbon capture) reactors leads to spontaneous CO2 capture?</t>
+  </si>
+  <si>
+    <t>What substance was primarily identified as the electron donor for CO2 reduction in MES systems?</t>
+  </si>
+  <si>
+    <t>What advantage do products with higher unit values have despite potentially lower total product value and market size?</t>
+  </si>
+  <si>
+    <t>Which type of system allows for the retention of anammox organisms?</t>
+  </si>
+  <si>
+    <t>What method could mitigate nitrous oxide (N2O) emissions in aerobic processes without affecting nitrogen removal performance?</t>
+  </si>
+  <si>
+    <t>How can aerobic granular sludge and biofilm systems develop different populations simultaneously in a single reactor?</t>
+  </si>
+  <si>
+    <t>Why is the recovery of nitrogen-based fertilizers from wastewater currently challenging?</t>
+  </si>
+  <si>
+    <t>What is a potential drawback when implementing Ammonia-based aeration control (AbAC) at a wastewater treatment plant with a high initial DO level?</t>
+  </si>
+  <si>
+    <t>Which sector contributes up to 30% of anthropogenic greenhouse gas emissions worldwide?</t>
+  </si>
+  <si>
+    <t>What is the approximate daily urine production per human that contributes less than 1% of total wastewater flow in developing countries?</t>
+  </si>
+  <si>
+    <t>Which ratio is generally recommended as the minimum readily biodegradable COD (rbCOD) to phosphorus (P) ratio for efficient EBPR systems?</t>
+  </si>
+  <si>
+    <t>What competitive advantage do PAOs gain due to extended anaerobic retention time in Sidestream Enhanced Biological Phosphorus Removal (S2EBPR) processes?</t>
+  </si>
+  <si>
+    <t>What percentage does oxygen consumption reduce by when using the nitrite shunt method?</t>
+  </si>
+  <si>
+    <t>What supports complex interactions that contribute to a sustainable assimilation of carbon and nutrients from wastewaters?</t>
+  </si>
+  <si>
+    <t>Which gas is primarily responsible for the increase in GHG emissions since the industrial revolution?</t>
+  </si>
+  <si>
+    <t>What advantage do microalgal-based systems provide in terms of wastewater treatment efficiency?</t>
+  </si>
+  <si>
+    <t>What role does oxygen (O2) produced by microalgae play in biogas upgrading?</t>
+  </si>
+  <si>
+    <t>What role does alkalinity play in microalgae growth?</t>
+  </si>
+  <si>
+    <t>What primary advantage do open photobioreactor configurations have over enclosed ones in treating piggery wastewater?</t>
+  </si>
+  <si>
+    <t>What factor may inhibit anaerobic microbial communities during the chemical pretreatment of microalgae?</t>
+  </si>
+  <si>
+    <t>Which configuration of biogas absorption equipment is preferred for its more effective gas–liquid mass transfer?</t>
+  </si>
+  <si>
+    <t>What are applications of biochar in wastewater effluent treatment?</t>
+  </si>
+  <si>
+    <t>What process is reported to increase feedstock biodegradability and biosolid dewaterability while maintaining a better energy balance?</t>
+  </si>
+  <si>
+    <t>What is a significant advantage of utilizing Hydrothermal Liquefaction (HTL) over pyrolysis for treating biosolids?</t>
+  </si>
+  <si>
+    <t>What compound is considered a more effective method for P recovery due to more accessible chemicals?</t>
+  </si>
+  <si>
+    <t>What key stakeholders are involved in determining sustainable sludge management practices?</t>
+  </si>
+  <si>
+    <t>Which novel hybrid technology could help reduce dissolved methane in the effluent of Anaerobic membrane bioreactor (AnMBRs)?</t>
+  </si>
+  <si>
+    <t>What specific feature of Membrane aerated biofilm reactor (MABRs) allows for significant energy savings in wastewater treatment?</t>
+  </si>
+  <si>
+    <t>What factor represents a significant challenge to the commercial development of Membrane aerated biofilm reactor (MABRs)?</t>
+  </si>
+  <si>
+    <t>What process is employed to mitigate fouling potential of wastewater retentate in seawater reverse osmosis (SWRO)-Pressure retarded osmosis (PRO) systems?</t>
+  </si>
+  <si>
+    <t>What is a significant disadvantage of MD in the context of membrane performance?</t>
+  </si>
+  <si>
+    <t>What process is referred to as ‘water reclamation and reuse’ in integrated watershed management?</t>
+  </si>
+  <si>
+    <t>Which factor makes Natural Treatment Systems particularly suitable for small communities or developing countries?</t>
+  </si>
+  <si>
+    <t>What is a primary reason that lagoon systems for wastewater treatment are popular in small, rural communities?</t>
+  </si>
+  <si>
+    <t>What operational problem can occur in lagoons due to seasonal changes, particularly during spring or fall?</t>
+  </si>
+  <si>
+    <t>What is the primary mechanism by which bioremediation seeks to reduce pollutant concentrations?</t>
+  </si>
+  <si>
+    <t>What makes microalgal biomass harvesting particularly energy- and cost-intensive?</t>
+  </si>
+  <si>
+    <t>What primary function do high-protein microalgae serve in wastewater and flue gas treatment systems?</t>
+  </si>
+  <si>
+    <t>Which pollutant treatment is typically associated with a horizontal flow constructed wetland in rural areas?</t>
+  </si>
+  <si>
+    <t>Which microorganisms are typically associated with c-type cytochrome genes in electrochemically enhanced AD systems?</t>
+  </si>
+  <si>
+    <t>What does the classical anaerobic digestion pathway include in waste treatment?</t>
+  </si>
+  <si>
+    <t>What would stimulate the growth of hydrogenotrophic methanogens in the cathodic biofilm?</t>
+  </si>
+  <si>
+    <t>What is essential for achieving deep decarbonization in indoor heating and hot water systems?</t>
+  </si>
+  <si>
+    <t>What factor makes wastewater particularly favorable for heat recovery in high-density urban areas?</t>
+  </si>
+  <si>
+    <t>What is a principal disadvantage of conventional models in water and wastewater treatment facilities?</t>
+  </si>
+  <si>
+    <t>What is the minimum time range suggested for inline sensors to stabilize for a reliable measurement in real-time applications at WRRFs?</t>
+  </si>
+  <si>
+    <t>What is the current best practice for converting carbon to biogas in the water sector?</t>
+  </si>
+  <si>
+    <t>What is one of the greatest areas for potential co-benefits regarding the decarbonization of wastewater?</t>
+  </si>
+  <si>
+    <t>What is a challenge associated with the sale of upgraded biogas to the local natural gas utility?</t>
+  </si>
+  <si>
+    <t>What aspect is considered crucial for ensuring that water utility resources meet customer needs?</t>
+  </si>
+  <si>
+    <t>Concrete, metal, and plastic materials</t>
+  </si>
+  <si>
+    <t>Wood, sandstone, and fiberglass materials</t>
+  </si>
+  <si>
+    <t>Carbon-fibre, bamboo</t>
+  </si>
+  <si>
+    <t>Recycled Material</t>
+  </si>
+  <si>
+    <t>It leads to the over-extraction of groundwater.</t>
+  </si>
+  <si>
+    <t>It reduces source water withdrawal and replenishes aquifers.</t>
+  </si>
+  <si>
+    <t>It increases the need for potable water treatment.</t>
+  </si>
+  <si>
+    <t>It results in the exacerbation of water shortages.</t>
+  </si>
+  <si>
+    <t>The deterioration of the device's physical appearance</t>
+  </si>
+  <si>
+    <t>A major increase in the device's market price</t>
+  </si>
+  <si>
+    <t>Changes in consumer preferences due to fashion trends</t>
+  </si>
+  <si>
+    <t>Federal and state-level incentives for improving efficiency</t>
+  </si>
+  <si>
+    <t>Affluent buyers with ready access to overnight charging in private garages.</t>
+  </si>
+  <si>
+    <t>Drivers living in urban rental units without private garages.</t>
+  </si>
+  <si>
+    <t>Taxi and delivery drivers with substantial charging needs.</t>
+  </si>
+  <si>
+    <t>Rural users with limited access to public charging infrastructure.</t>
+  </si>
+  <si>
+    <t>The deployment of public charging infrastructure in rural areas.</t>
+  </si>
+  <si>
+    <t>The carbon-free status of the electricity grid.</t>
+  </si>
+  <si>
+    <t>The energy density of the battery.</t>
+  </si>
+  <si>
+    <t>The availability of private garages for overnight charging.</t>
+  </si>
+  <si>
+    <t>Groundwater</t>
+  </si>
+  <si>
+    <t>Lake water</t>
+  </si>
+  <si>
+    <t>River water</t>
+  </si>
+  <si>
+    <t>Reservoir water</t>
+  </si>
+  <si>
+    <t>10%</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>30%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>Purchase green carbon credits</t>
+  </si>
+  <si>
+    <t>Use nuclear power plants</t>
+  </si>
+  <si>
+    <t>Install wind turbines</t>
+  </si>
+  <si>
+    <t>Employ solar panels extensively</t>
+  </si>
+  <si>
+    <t>They mandate the use of multiple databases for accurate results.</t>
+  </si>
+  <si>
+    <t>They increase the cost but significantly reduce complexity of quantification.</t>
+  </si>
+  <si>
+    <t>They reduce the resource requirements by eliminating the need for measurement campaigns.</t>
+  </si>
+  <si>
+    <t>They increase the accuracy of emission measurements.</t>
+  </si>
+  <si>
+    <t>On-line approach with continuous monitoring</t>
+  </si>
+  <si>
+    <t>Intermittent sampling using canisters</t>
+  </si>
+  <si>
+    <t>Temporal sampling using sorbent tubes</t>
+  </si>
+  <si>
+    <t>Periodic grab sampling with gas bags</t>
+  </si>
+  <si>
+    <t>utilizing ultraviolet disinfection</t>
+  </si>
+  <si>
+    <t>thermal heat integration</t>
+  </si>
+  <si>
+    <t>real time nitrogen species monitoring and control including N2O emissions</t>
+  </si>
+  <si>
+    <t>using solar panels</t>
+  </si>
+  <si>
+    <t>Enhancing microbial diversity through genetic modification</t>
+  </si>
+  <si>
+    <t>Increasing the feed rate of non-municipal sludge</t>
+  </si>
+  <si>
+    <t>Controlling operational parameters within the optimum range</t>
+  </si>
+  <si>
+    <t>Utilizing only municipal sludge as the feedstock</t>
+  </si>
+  <si>
+    <t>Less than 20%</t>
+  </si>
+  <si>
+    <t>Between 20% and 30%</t>
+  </si>
+  <si>
+    <t>Around 60%</t>
+  </si>
+  <si>
+    <t>Over 70%</t>
+  </si>
+  <si>
+    <t>Struvite scaling</t>
+  </si>
+  <si>
+    <t>Biogas leakage</t>
+  </si>
+  <si>
+    <t>Enhanced digestion capacity</t>
+  </si>
+  <si>
+    <t>Gas conditioning media fouling</t>
+  </si>
+  <si>
+    <t>Trace pollutants including pharmaceuticals and anthropogenic nanomaterials</t>
+  </si>
+  <si>
+    <t>Suspended solids with high settling velocity</t>
+  </si>
+  <si>
+    <t>Biodiversity elements in natural water bodies</t>
+  </si>
+  <si>
+    <t>High nutrient load</t>
+  </si>
+  <si>
+    <t>Expensive maintenance activities</t>
+  </si>
+  <si>
+    <t>Inconsistent quality of biogas</t>
+  </si>
+  <si>
+    <t>Absence of carbon credits or energy subsidies</t>
+  </si>
+  <si>
+    <t>High transportation costs for biogas</t>
+  </si>
+  <si>
+    <t>Increased foaming and reduced gas quality, especially in mesophilic conditions</t>
+  </si>
+  <si>
+    <t>Carbon dioxide buildup, inhibiting methane production efficiency</t>
+  </si>
+  <si>
+    <t>Excessive hydrogen sulfide production, resulting in odorous emissions</t>
+  </si>
+  <si>
+    <t>Ammonia may be toxic to the AD microbial consortium, particularly to methanogens</t>
+  </si>
+  <si>
+    <t>ammonium-based ILs</t>
+  </si>
+  <si>
+    <t>sulfonium-based ILs</t>
+  </si>
+  <si>
+    <t>phosphonium-based ILs</t>
+  </si>
+  <si>
+    <t>imidazolium-based ILs</t>
+  </si>
+  <si>
+    <t>Maximizing bioenergy capture and carbon recovery in a higher value form.</t>
+  </si>
+  <si>
+    <t>Solely focusing on cost reduction regardless of environmental impact.</t>
+  </si>
+  <si>
+    <t>Achieving water reuse without emphasis on value-added products.</t>
+  </si>
+  <si>
+    <t>Promoting conceptual designs without considering economic factors.</t>
+  </si>
+  <si>
+    <t>Silica gel</t>
+  </si>
+  <si>
+    <t>Granular activated carbon</t>
+  </si>
+  <si>
+    <t>Clinoptilolite clay</t>
+  </si>
+  <si>
+    <t>Activated aluminum oxide</t>
+  </si>
+  <si>
+    <t>The movement of electrons from the anode to the cathode.</t>
+  </si>
+  <si>
+    <t>The oxidation of waste organic carbons by microorganisms.</t>
+  </si>
+  <si>
+    <t>The generation of H2 at the cathode</t>
+  </si>
+  <si>
+    <t>The reaction of metal hydroxide with CO2.</t>
+  </si>
+  <si>
+    <t>In situ generated H2</t>
+  </si>
+  <si>
+    <t>External hydrogen sources</t>
+  </si>
+  <si>
+    <t>Direct electrons from the electrode</t>
+  </si>
+  <si>
+    <t>Artificial electron donors</t>
+  </si>
+  <si>
+    <t>Higher profit margins</t>
+  </si>
+  <si>
+    <t>Greater market appeal</t>
+  </si>
+  <si>
+    <t>Reduced synthesis costs</t>
+  </si>
+  <si>
+    <t>Lower environmental impact</t>
+  </si>
+  <si>
+    <t>sand filters</t>
+  </si>
+  <si>
+    <t>moving bed bioreactors</t>
+  </si>
+  <si>
+    <t>activated sludge tanks</t>
+  </si>
+  <si>
+    <t>septic tanks</t>
+  </si>
+  <si>
+    <t>Introducing higher nitrite concentrations</t>
+  </si>
+  <si>
+    <t>Increasing NH2OH oxidation</t>
+  </si>
+  <si>
+    <t>Decreasing intermittent aeration frequency</t>
+  </si>
+  <si>
+    <t>Modifying the aeration strategy</t>
+  </si>
+  <si>
+    <t>by using a two-phase system with suspended growth</t>
+  </si>
+  <si>
+    <t>by separating the SRTs of different populations</t>
+  </si>
+  <si>
+    <t>by limiting the depth of the biofilm spatially</t>
+  </si>
+  <si>
+    <t>by taking advantage of relative diffusion resistance inside and outside of a granule/biofilm</t>
+  </si>
+  <si>
+    <t>Electrochemical treatments are inadequate for application</t>
+  </si>
+  <si>
+    <t>Struvite formation is insufficient in quantity</t>
+  </si>
+  <si>
+    <t>The cost of biological N removal is declining with shortcut opportunities</t>
+  </si>
+  <si>
+    <t>Thermal treatments are cost-prohibitive</t>
+  </si>
+  <si>
+    <t>Increased stringent TN limits</t>
+  </si>
+  <si>
+    <t>An inherent loss in nitrification capacity</t>
+  </si>
+  <si>
+    <t>Expansion of aeration tank volume</t>
+  </si>
+  <si>
+    <t>Elevated levels of supplemental carbon chemicals</t>
+  </si>
+  <si>
+    <t>Residential heating and cooling systems</t>
+  </si>
+  <si>
+    <t>Agriculture, including crop and livestock production, forestry, and associated land use changes</t>
+  </si>
+  <si>
+    <t>Commercial business operations and services</t>
+  </si>
+  <si>
+    <t>Transportation, including vehicles and airplanes</t>
+  </si>
+  <si>
+    <t>1.5-2.5 L</t>
+  </si>
+  <si>
+    <t>2.5-3.5 L</t>
+  </si>
+  <si>
+    <t>0.5-1.0 L</t>
+  </si>
+  <si>
+    <t>0.8-1.6 L</t>
+  </si>
+  <si>
+    <t>10:1–15:1</t>
+  </si>
+  <si>
+    <t>15:1–25:1</t>
+  </si>
+  <si>
+    <t>5:1–10:1</t>
+  </si>
+  <si>
+    <t>20:1–30:1</t>
+  </si>
+  <si>
+    <t>Greater growth of GAOs</t>
+  </si>
+  <si>
+    <t>Higher dependency on external carbon sources</t>
+  </si>
+  <si>
+    <t>More efficient carbon utilization by PAOs</t>
+  </si>
+  <si>
+    <t>Reduced functional redundancy and complementation</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>25%</t>
+  </si>
+  <si>
+    <t>0.9</t>
+  </si>
+  <si>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>Heterotrophic bacteria collaboration</t>
+  </si>
+  <si>
+    <t>UV radiation exposure</t>
+  </si>
+  <si>
+    <t>Chemical additive integration</t>
+  </si>
+  <si>
+    <t>Algal-bacterial symbiosis</t>
+  </si>
+  <si>
+    <t>Sulphur hexafluoride (SF6)</t>
+  </si>
+  <si>
+    <t>Ozone (O3)</t>
+  </si>
+  <si>
+    <t>Methane (CH4)</t>
+  </si>
+  <si>
+    <t>They exclusively produce methane gas from wastewater</t>
+  </si>
+  <si>
+    <t>They solely focus on the removal of phosphorus</t>
+  </si>
+  <si>
+    <t>They require high external aeration and energy input</t>
+  </si>
+  <si>
+    <t>They reduce CO2 emissions and energy consumption while enhancing nutrient recovery</t>
+  </si>
+  <si>
+    <t>Catalyst for biomethane production</t>
+  </si>
+  <si>
+    <t>Reducing agent for CO2</t>
+  </si>
+  <si>
+    <t>Used by sulfur oxidizing bacteria to remove H2S from biogas</t>
+  </si>
+  <si>
+    <t>Combustion enhancer in biogas engines</t>
+  </si>
+  <si>
+    <t>Reduces nutrient concentration</t>
+  </si>
+  <si>
+    <t>Decreases pH levels</t>
+  </si>
+  <si>
+    <t>Limits the uptake of HCO ?</t>
+  </si>
+  <si>
+    <t>Governs the CO2 gas-liquid mass transfer rate to the cultivation broth</t>
+  </si>
+  <si>
+    <t>Faster setup time</t>
+  </si>
+  <si>
+    <t>Lower operational costs</t>
+  </si>
+  <si>
+    <t>Enhanced microalgae growth</t>
+  </si>
+  <si>
+    <t>Higher organic carbon and nitrogen removals</t>
+  </si>
+  <si>
+    <t>Structural fragmentation of recalcitrant organic matter.</t>
+  </si>
+  <si>
+    <t>Energy efficiency being lower than methane recovery.</t>
+  </si>
+  <si>
+    <t>Inconsistent results across algal species.</t>
+  </si>
+  <si>
+    <t>The potential formation of by-products.</t>
+  </si>
+  <si>
+    <t>External absorption column interconnected to the photobioreactor</t>
+  </si>
+  <si>
+    <t>Internal photobioreactor with no external column</t>
+  </si>
+  <si>
+    <t>Standalone photobioreactor without absorption column</t>
+  </si>
+  <si>
+    <t>Integrated external column without photobioreactor</t>
+  </si>
+  <si>
+    <t>Separation of gases, liquids, solids, and particles</t>
+  </si>
+  <si>
+    <t>Absorption of nitrates, phosphates, sugars, and proteins</t>
+  </si>
+  <si>
+    <t>Collection of yeasts, molds, spores, and fungi</t>
+  </si>
+  <si>
+    <t>Adsorption of antibiotics, heavy metals, dyes, and phenolic compounds</t>
+  </si>
+  <si>
+    <t>Gasification</t>
+  </si>
+  <si>
+    <t>Lower yield of biocrude oil</t>
+  </si>
+  <si>
+    <t>The capability to process wet feedstocks</t>
+  </si>
+  <si>
+    <t>Need for more advanced equipment</t>
+  </si>
+  <si>
+    <t>Higher temperature requirements</t>
+  </si>
+  <si>
+    <t>Organic sludge</t>
+  </si>
+  <si>
+    <t>Phosphoric acid</t>
+  </si>
+  <si>
+    <t>Calcium phosphate (Ca-P)</t>
+  </si>
+  <si>
+    <t>Dischargers, farmers, suppliers, and manufacturers</t>
+  </si>
+  <si>
+    <t>Dischargers, utilities, regulators, farmers, and customers</t>
+  </si>
+  <si>
+    <t>Regulators, utilities, farmers, and analysts</t>
+  </si>
+  <si>
+    <t>Utilities, specialists, customers, and researchers</t>
+  </si>
+  <si>
+    <t>Biological methods like quorum quenching</t>
+  </si>
+  <si>
+    <t>Conventional membrane bioreactors (MBRs)</t>
+  </si>
+  <si>
+    <t>Physical methods like rotating membranes</t>
+  </si>
+  <si>
+    <t>Forward osmosis (FO)-AnMBR</t>
+  </si>
+  <si>
+    <t>Increased hydraulic retention time</t>
+  </si>
+  <si>
+    <t>Enhanced chemical disinfection</t>
+  </si>
+  <si>
+    <t>Improved sludge management</t>
+  </si>
+  <si>
+    <t>Efficient oxygen transfer via membrane</t>
+  </si>
+  <si>
+    <t>Scarcity of operational data</t>
+  </si>
+  <si>
+    <t>Membrane replacement cost</t>
+  </si>
+  <si>
+    <t>Excessive sludge production</t>
+  </si>
+  <si>
+    <t>Both RO and UF</t>
+  </si>
+  <si>
+    <t>Only NF</t>
+  </si>
+  <si>
+    <t>Only UF</t>
+  </si>
+  <si>
+    <t>Both UF and NF</t>
+  </si>
+  <si>
+    <t>Excessive salt retention</t>
+  </si>
+  <si>
+    <t>High operational temperature</t>
+  </si>
+  <si>
+    <t>Low membrane flux</t>
+  </si>
+  <si>
+    <t>Low hydrophobicity</t>
+  </si>
+  <si>
+    <t>Wastewater treatment</t>
+  </si>
+  <si>
+    <t>Disposal of stormwater</t>
+  </si>
+  <si>
+    <t>Aquifer depletion</t>
+  </si>
+  <si>
+    <t>Drinking water extraction</t>
+  </si>
+  <si>
+    <t>Dependence on advanced automation and real-time monitoring</t>
+  </si>
+  <si>
+    <t>Compatibility with intermittent electrical grid reliability</t>
+  </si>
+  <si>
+    <t>They require less capital and operational investment than conventional methods.</t>
+  </si>
+  <si>
+    <t>Necessity for highly specialized technical staff for daily management</t>
+  </si>
+  <si>
+    <t>The rapid breakdown of contaminants</t>
+  </si>
+  <si>
+    <t>Their ability to treat to stringent effluent limits year-round</t>
+  </si>
+  <si>
+    <t>Their ability to prevent sludge buildup</t>
+  </si>
+  <si>
+    <t>The simplicity and affordability of treatment lagoons</t>
+  </si>
+  <si>
+    <t>Decreased biological oxygen demand</t>
+  </si>
+  <si>
+    <t>Efficient removal of nutrients</t>
+  </si>
+  <si>
+    <t>High levels of operator control</t>
+  </si>
+  <si>
+    <t>Strong odors during spring or fall inversions</t>
+  </si>
+  <si>
+    <t>Applying high temperature treatments to break down hazardous substances</t>
+  </si>
+  <si>
+    <t>Employing mechanical techniques to separate contaminants from soil</t>
+  </si>
+  <si>
+    <t>Deploying physical filters to remove pollutants from the environment</t>
+  </si>
+  <si>
+    <t>Harnessing specialized microbial enzymes to completely mineralize pollutants or decrease their concentrations below regulatory limits.</t>
+  </si>
+  <si>
+    <t>The need for anaerobic conditions.</t>
+  </si>
+  <si>
+    <t>The presence of heavy metals in wastewater.</t>
+  </si>
+  <si>
+    <t>Cells need to be separated from a dilute solution.</t>
+  </si>
+  <si>
+    <t>Requirement for large land areas for cultivation.</t>
+  </si>
+  <si>
+    <t>They primarily generate electricity and desalinate water.</t>
+  </si>
+  <si>
+    <t>They convert CO2 into methane and desalinate seawater.</t>
+  </si>
+  <si>
+    <t>They remove nitrogen and phosphorus, fix CO2, tolerate saline water, and produce valuable biomass.</t>
+  </si>
+  <si>
+    <t>They trap methane and convert saline water into freshwater.</t>
+  </si>
+  <si>
+    <t>Airborne greenhouse gases.</t>
+  </si>
+  <si>
+    <t>Only agricultural runoff phosphorus.</t>
+  </si>
+  <si>
+    <t>Exclusively industrial heavy metals.</t>
+  </si>
+  <si>
+    <t>Conventional pollutants like BOD and nutrients.</t>
+  </si>
+  <si>
+    <t>Neisseria, Vibrio, and Haemophilus</t>
+  </si>
+  <si>
+    <t>Helicobacter, Streptococcus, and Mycobacterium</t>
+  </si>
+  <si>
+    <t>Geobacter, Shewanella, and Desulfovibrio</t>
+  </si>
+  <si>
+    <t>Pseudomonas, Lactobacillus, and Clostridium</t>
+  </si>
+  <si>
+    <t>Oxidation and crystallization</t>
+  </si>
+  <si>
+    <t>Methanogenesis, phosphorylation, sulfonation, and nitrification</t>
+  </si>
+  <si>
+    <t>Hydrolysis, fermentation, acetogenesis, and methanogenesis</t>
+  </si>
+  <si>
+    <t>Hydrolysis, photolysis, combustion, and respiration</t>
+  </si>
+  <si>
+    <t>Electrons from the cathode</t>
+  </si>
+  <si>
+    <t>Presence of H2 evolution</t>
+  </si>
+  <si>
+    <t>Acetate consumption</t>
+  </si>
+  <si>
+    <t>Low oxygen levels</t>
+  </si>
+  <si>
+    <t>Adoption of electrical resistance heating</t>
+  </si>
+  <si>
+    <t>Maintaining current energy policies</t>
+  </si>
+  <si>
+    <t>Increasing individual building system efficiencies</t>
+  </si>
+  <si>
+    <t>Transition away from combustion of fossil-based fuels</t>
+  </si>
+  <si>
+    <t>The rate of thermal energy discharged can outpace the rate of heat dissipation.</t>
+  </si>
+  <si>
+    <t>The temperature remains consistent across all regions.</t>
+  </si>
+  <si>
+    <t>Ambient winter air temperatures are higher than ground temperatures.</t>
+  </si>
+  <si>
+    <t>Only residential water contributes substantially to wastewater heat.</t>
+  </si>
+  <si>
+    <t>They are rarely sufficiently accurate for process monitoring and control.</t>
+  </si>
+  <si>
+    <t>They rely on outdated chemical and microbial data.</t>
+  </si>
+  <si>
+    <t>They are difficult to use without extensive operator training.</t>
+  </si>
+  <si>
+    <t>They frequently require expensive equipment for operation.</t>
+  </si>
+  <si>
+    <t>1-10 minutes</t>
+  </si>
+  <si>
+    <t>5-20 minutes</t>
+  </si>
+  <si>
+    <t>10-30 minutes</t>
+  </si>
+  <si>
+    <t>20-40 minutes</t>
+  </si>
+  <si>
+    <t>Employing chemical treatment to convert the carbon</t>
+  </si>
+  <si>
+    <t>Using aerobic processes to convert carbon</t>
+  </si>
+  <si>
+    <t>Deploying electrochemical processes converting  carbon</t>
+  </si>
+  <si>
+    <t>Using anaerobic digestion to convert carbon</t>
+  </si>
+  <si>
+    <t>Recycling wastewater to produce drinking water</t>
+  </si>
+  <si>
+    <t>Increasing the volume of treated sewage</t>
+  </si>
+  <si>
+    <t>Capturing the low-grade heat contained in the water</t>
+  </si>
+  <si>
+    <t>Enhancing the efficiency of water pumping stations</t>
+  </si>
+  <si>
+    <t>The local natural gas utility does not accept upgraded biogas.</t>
+  </si>
+  <si>
+    <t>There are environmental regulations restricting its use.</t>
+  </si>
+  <si>
+    <t>Difficulties with institutional arrangements and pricing</t>
+  </si>
+  <si>
+    <t>The biogas quality does not meet necessary standards.</t>
+  </si>
+  <si>
+    <t>Maximizing revenue from high-demand products regardless of scalability</t>
+  </si>
+  <si>
+    <t>Prioritizing product innovation over market demand analysis</t>
+  </si>
+  <si>
+    <t>Recovering resources intermittently based on operational convenience</t>
+  </si>
+  <si>
+    <t>Recovering resources in a form and quality that suits user specifications</t>
+  </si>
+  <si>
+    <t>Why is the water sector motivated to contribute to greenhouse gas mitigation?</t>
+  </si>
+  <si>
+    <t>What gases are emitted from wastewater systems?</t>
+  </si>
+  <si>
+    <t>What is the initial step in addressing CH4 emissions from urban wastewater systems?</t>
+  </si>
+  <si>
+    <t>What was attributed to different responses to NO2− among various AOB strains?</t>
+  </si>
+  <si>
+    <t>What term describes the system in which nitrifiers and denitrifiers coexist in wastewater treatment?</t>
+  </si>
+  <si>
+    <t>What operational condition is frequently linked to N2O emission variability?</t>
+  </si>
+  <si>
+    <t>What environmental condition can significantly increase abiotic reaction contribution to N2O production?</t>
+  </si>
+  <si>
+    <t>Which zone in BNR reactors contributes significantly to N2O emissions?</t>
+  </si>
+  <si>
+    <t>How is methane generation intention in WWTPs different from that in sewer systems?</t>
+  </si>
+  <si>
+    <t>Why are anaerobic wastewater treatment processes considered sustainable technologies?</t>
+  </si>
+  <si>
+    <t>Which group of microorganisms primarily carries out hydrolysis in anaerobic digestion?</t>
+  </si>
+  <si>
+    <t>What purpose does collecting methane-rich biogas serve in wastewater treatment plants?</t>
+  </si>
+  <si>
+    <t>What maximum removal efficiency was achieved by a down-flow hanging sponge (DHS) reactor for methane removal?</t>
+  </si>
+  <si>
+    <t>What type of bacteria competes with methanogens for substrates in sewer anaerobic biofilms?</t>
+  </si>
+  <si>
+    <t>What drives anaerobic conditions in wetted biofilms in rising main sewers?</t>
+  </si>
+  <si>
+    <t>What is one reported cause of methane leakage in anaerobic digesters?</t>
+  </si>
+  <si>
+    <t>Which Tier method is suggested when neither asset-specific nor country-specific EF data is available?</t>
+  </si>
+  <si>
+    <t>What method is used for cleaning biogas for grid injection?</t>
+  </si>
+  <si>
+    <t>What is the main advantage of using a Lindvall hood configuration for measuring emissions?</t>
+  </si>
+  <si>
+    <t>What methodological improvement has contributed to understanding the production pathways of N2O and CH4 in wastewater treatment plants?</t>
+  </si>
+  <si>
+    <t>Which monitoring strategy yields higher average N2O EFs in mainstream wastewater processes?</t>
+  </si>
+  <si>
+    <t>What temperature dependency of N2O emissions has been observed in OD reactors?</t>
+  </si>
+  <si>
+    <t>What is one major microbial pathway for N2O formation in wastewater treatment?</t>
+  </si>
+  <si>
+    <t>What factor is crucial for enhancing full-scale application of N2O models for wastewater treatment?</t>
+  </si>
+  <si>
+    <t>What concept underpins the activated sludge model with indirect coupling of electrons (ASM-ICE)?</t>
+  </si>
+  <si>
+    <t>What is a requirement for employing NH2OH oxidation models in nitrogen prediction systems?</t>
+  </si>
+  <si>
+    <t>What progress has mathematical modelling of N2O production achieved in wastewater treatment facilities?</t>
+  </si>
+  <si>
+    <t>What type of reaction kinetics is used for intra-cellular biochemical reactions in ADM1?</t>
+  </si>
+  <si>
+    <t>Why is mathematical modeling preferred over measurements in estimating methane emissions in large sewer networks?</t>
+  </si>
+  <si>
+    <t>Which operational variable correlates to the anaerobic digester system’s efficiency in wastewater treatment plants?</t>
+  </si>
+  <si>
+    <t>Which recent advances allow for improved modeling of physicochemical processes in wastewater treatment?</t>
+  </si>
+  <si>
+    <t>How was DO integrated with N2O Risk Models for spatial predictions?</t>
+  </si>
+  <si>
+    <t>What operational measure avoids high nitrite accumulation?</t>
+  </si>
+  <si>
+    <t>What pathway leads to methane formation in engineered wastewater systems?</t>
+  </si>
+  <si>
+    <t>Why are hybrid models explored in the context of data-driven approaches?</t>
+  </si>
+  <si>
+    <t>What is a notable limitation of the current GHG accounting methodologies with respect to N2O emissions?</t>
+  </si>
+  <si>
+    <t>Facilitating employment in rural sectors expands jobs.</t>
+  </si>
+  <si>
+    <t>Sustaining urban water cycles ensures future availability.</t>
+  </si>
+  <si>
+    <t>Reducing access to external reserves reduces costs.</t>
+  </si>
+  <si>
+    <t>Promoting privatized utility ownership frameworks aligns.</t>
+  </si>
+  <si>
+    <t>Methane (CH4) and Nitrous Oxide (N2O) gases.</t>
+  </si>
+  <si>
+    <t>High-energy Ethane and compounds like Sulphur Hexafluoride gas.</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide molecules (CO2) combined with reactive Ozone (O3).</t>
+  </si>
+  <si>
+    <t>Internationally gathered data on Perfluorocarbons and equivalent.</t>
+  </si>
+  <si>
+    <t>Constructing advanced methane capture facilities in processing plants.</t>
+  </si>
+  <si>
+    <t>Identifying emission spots within the wastewater systems structure.</t>
+  </si>
+  <si>
+    <t>Increasing oxygen concentration levels within treatment tanks used.</t>
+  </si>
+  <si>
+    <t>Implementing strategies around carbon sequestration efforts directly.</t>
+  </si>
+  <si>
+    <t>Similar biochemical pathways developed for NO2− environment adaptation</t>
+  </si>
+  <si>
+    <t>General response patterns derived from shared metabolic mechanisms</t>
+  </si>
+  <si>
+    <t>Common adaptation methods identified among varied AOB communities</t>
+  </si>
+  <si>
+    <t>Specific genetic and physiological traits unique to each AOB strain</t>
+  </si>
+  <si>
+    <t>Ammonia-oxidizing bacteria (AOB)</t>
+  </si>
+  <si>
+    <t>Hydrazine dehydrogenase (HDH)</t>
+  </si>
+  <si>
+    <t>Hydrazine synthase enzyme (HZS)</t>
+  </si>
+  <si>
+    <t>Biological Nitrogen Removal (BNR)</t>
+  </si>
+  <si>
+    <t>Electrical conductivity variations influence nitrogen cycling.</t>
+  </si>
+  <si>
+    <t>Dissolved oxygen present in the system alters emissions greatly.</t>
+  </si>
+  <si>
+    <t>Concentration of chloride ions changes process efficiencies.</t>
+  </si>
+  <si>
+    <t>The murkiness of water plays a major role in the emissions.</t>
+  </si>
+  <si>
+    <t>Salinity levels higher than normal standard measurements.</t>
+  </si>
+  <si>
+    <t>Acidic conditions at pH levels lower or equal to 5.</t>
+  </si>
+  <si>
+    <t>Neutral pH conditions within balanced water systems observed.</t>
+  </si>
+  <si>
+    <t>Increased temperatures exceeding usual climatic conditions present.</t>
+  </si>
+  <si>
+    <t>Sludge containment areas influence reactions marginally more.</t>
+  </si>
+  <si>
+    <t>Denitrification spaces often produce emissions trivially less.</t>
+  </si>
+  <si>
+    <t>Aerobic reactors play a larger role in nitrous oxide emissions.</t>
+  </si>
+  <si>
+    <t>Anoxic parts contribute but slightly lower than aerobic ones.</t>
+  </si>
+  <si>
+    <t>Methane creation intended within WWTPs for energy via biogas capture.</t>
+  </si>
+  <si>
+    <t>Methane emerges unintentionally similar methods applied between WWTP practices.</t>
+  </si>
+  <si>
+    <t>Sewage corresponds aligning methane avoidance unlike active WWTP aims.</t>
+  </si>
+  <si>
+    <t>Reduces methane predictive pathways dueling operational compliance frameworks solutions.</t>
+  </si>
+  <si>
+    <t>They recover energy through generating methane biogas</t>
+  </si>
+  <si>
+    <t>Chemical treatments reduce overall system dependency sites</t>
+  </si>
+  <si>
+    <t>Replace oxygen-demanding methods improving water resource</t>
+  </si>
+  <si>
+    <t>Disposal efforts streamline enhancing replicating efficiency</t>
+  </si>
+  <si>
+    <t>Methanogenic archaea within the anaerobic digestion process.</t>
+  </si>
+  <si>
+    <t>Fermentative bacteria from Streptococcus and Enterobacterium.</t>
+  </si>
+  <si>
+    <t>Acetogen species active within the acetogenesis phase.</t>
+  </si>
+  <si>
+    <t>Acidogenic bacteria essential during acidogenesis phase.</t>
+  </si>
+  <si>
+    <t>Restrains olfactory nuisances improving air levels post treatment flow.</t>
+  </si>
+  <si>
+    <t>Stops methane release while yielding energy from collected resource.</t>
+  </si>
+  <si>
+    <t>Improves downstream purification effectiveness aiding capture methods.</t>
+  </si>
+  <si>
+    <t>Reduces microbial involvement within sludge through minimized activity rate.</t>
+  </si>
+  <si>
+    <t>The maximal removal efficiency was measured at 90% methane.</t>
+  </si>
+  <si>
+    <t>The maximal removal efficiency was measured at 95% methane.</t>
+  </si>
+  <si>
+    <t>The maximal removal efficiency was measured at 85% methane.</t>
+  </si>
+  <si>
+    <t>The maximal removal efficiency was measured at 70% methane.</t>
+  </si>
+  <si>
+    <t>The competitors are Nitrogen-Fixing Bacteria (abbreviation NFB) mainly</t>
+  </si>
+  <si>
+    <t>The competitors are Sulfate Reducing Bacteria (abbreviation SRB) mainly</t>
+  </si>
+  <si>
+    <t>The competitors are Cyanobacterial Microorganisms (known as CBM) mainly</t>
+  </si>
+  <si>
+    <t>The competitors are Ammonia Oxidizing Bacteria (known as AOB) mainly</t>
+  </si>
+  <si>
+    <t>Combined persist load general excess methane configurational branching.</t>
+  </si>
+  <si>
+    <t>Attachment nodulation sewers close tight anaerobic deductors reasoning designs.</t>
+  </si>
+  <si>
+    <t>Potential usage classification determines wastewater composition..</t>
+  </si>
+  <si>
+    <t>Exact biofilm slow-built characteristics control oxygen passage slight risk contexts.</t>
+  </si>
+  <si>
+    <t>Operation of units without methane recovery systems working.</t>
+  </si>
+  <si>
+    <t>Use of improperly sealed sludge-drying lagoons for containment.</t>
+  </si>
+  <si>
+    <t>Poor maintenance of pressure-balancing valves causing leaks.</t>
+  </si>
+  <si>
+    <t>Excessive focus on optimization neglecting maintenance tasks.</t>
+  </si>
+  <si>
+    <t>Tier 2, developed using model-based predictive data</t>
+  </si>
+  <si>
+    <t>None of the other</t>
+  </si>
+  <si>
+    <t>Tier 1, utilizing refined global EF recommendations</t>
+  </si>
+  <si>
+    <t>Tier 3, employing asset-specific facility-level metrics</t>
+  </si>
+  <si>
+    <t>Electrolysis separation at high voltage levels</t>
+  </si>
+  <si>
+    <t>Thermal removal of impurities under oxyfuel</t>
+  </si>
+  <si>
+    <t>Utilizing circulated sludge in activated reactors</t>
+  </si>
+  <si>
+    <t>Filtration via membranes or water washing systems</t>
+  </si>
+  <si>
+    <t>Delivering accurate real-time thermal regulation.</t>
+  </si>
+  <si>
+    <t>Testing parameters unaltered by fluctuating factors.</t>
+  </si>
+  <si>
+    <t>Operating complete analysis without external inputs.</t>
+  </si>
+  <si>
+    <t>Simulating wind behavior for consistent measurements.</t>
+  </si>
+  <si>
+    <t>Implementing online monitoring using advanced process-unit applications.</t>
+  </si>
+  <si>
+    <t>Employing fixed-location atmospheric sensors for local measurements.</t>
+  </si>
+  <si>
+    <t>Utilizing broad-spectrum emission coefficients uniformly applied.</t>
+  </si>
+  <si>
+    <t>Quantifying theoretical gas emissions for plant assessments.</t>
+  </si>
+  <si>
+    <t>Grab-sample analysis emphasizing targeted focus areas</t>
+  </si>
+  <si>
+    <t>Isolated point data examination from obtained results</t>
+  </si>
+  <si>
+    <t>Offline sampling by periodic manual inspection methods</t>
+  </si>
+  <si>
+    <t>Continuous data collection using automatic monitoring systems</t>
+  </si>
+  <si>
+    <t>The emission shows random pattern with respect to temperature</t>
+  </si>
+  <si>
+    <t>Higher water temperatures strongly correlated with measuring decreased emissions</t>
+  </si>
+  <si>
+    <t>Higher water temperatures strongly correlated with measuring increased emissions</t>
+  </si>
+  <si>
+    <t>No dependency</t>
+  </si>
+  <si>
+    <t>Via nitrifying ammonia-oxidizing bacteria activity.</t>
+  </si>
+  <si>
+    <t>Using sulfur-oxidizing bacteria involvement.</t>
+  </si>
+  <si>
+    <t>Using nitrogen-fixing bacteria routes.</t>
+  </si>
+  <si>
+    <t>Using carbon-decomposing bacteria pathways.</t>
+  </si>
+  <si>
+    <t>Exclusive focus on the advancement of singular models.</t>
+  </si>
+  <si>
+    <t>Reduction of the number of pathways in the models.</t>
+  </si>
+  <si>
+    <t>Comprehensive integration of extensive full-scale data sets.</t>
+  </si>
+  <si>
+    <t>Concentration on suspended growth mechanism data.</t>
+  </si>
+  <si>
+    <t>It separates oxidation and reduction for electrons allocation.</t>
+  </si>
+  <si>
+    <t>It makes electron sharing simultaneous, avoiding competition.</t>
+  </si>
+  <si>
+    <t>Carbon oxidation isolated outside denitrification connections.</t>
+  </si>
+  <si>
+    <t>Kinetics mix directly chemical and enzymatic couplings.</t>
+  </si>
+  <si>
+    <t>High DO conditions enabling oxygen pathways</t>
+  </si>
+  <si>
+    <t>Low nitrite levels inhibiting certain thresholds</t>
+  </si>
+  <si>
+    <t>Stable IC concentration under controlled setups</t>
+  </si>
+  <si>
+    <t>Dual-pathway calibration for extensive modeling</t>
+  </si>
+  <si>
+    <t>Real-time monitoring has been replaced by it.</t>
+  </si>
+  <si>
+    <t>Simulation results rely exclusively on theoretical premises.</t>
+  </si>
+  <si>
+    <t>Facilitates site-specific N2O emission estimations effectively.</t>
+  </si>
+  <si>
+    <t>Degrees of model uncertainties have been eliminated fully.</t>
+  </si>
+  <si>
+    <t>For intracellular reactions, first-order methodologies are chosen.</t>
+  </si>
+  <si>
+    <t>Intracellular kinetics are defined by methane's empirical equations.</t>
+  </si>
+  <si>
+    <t>Intracellular biochemistry in ADM1 applies Monod-based kinetics.</t>
+  </si>
+  <si>
+    <t>Michaelis-Menten laws govern all internal reactions calculable.</t>
+  </si>
+  <si>
+    <t>Complex sewer systems make direct methane measurements impractical.</t>
+  </si>
+  <si>
+    <t>Methane varies vastly by seasonal condition affecting periods.</t>
+  </si>
+  <si>
+    <t>Geographic areas of sewers limit summer high-altitude samplings.</t>
+  </si>
+  <si>
+    <t>Sewage sensors can disrupt operations or equipment balance.</t>
+  </si>
+  <si>
+    <t>Temperature settings of sludge digesters thoroughly</t>
+  </si>
+  <si>
+    <t>Nutrient concentrations within the digester unit</t>
+  </si>
+  <si>
+    <t>Incoming dissolved solids monitoring in influents</t>
+  </si>
+  <si>
+    <t>Volume processed within digested batches daily</t>
+  </si>
+  <si>
+    <t>Calculating pH and acid chemistry in relevant processes</t>
+  </si>
+  <si>
+    <t>Observing the enhanced microbial activities in actions</t>
+  </si>
+  <si>
+    <t>Monitoring and managing solids with the advanced tools</t>
+  </si>
+  <si>
+    <t>Developing improved data handling for processing speeds</t>
+  </si>
+  <si>
+    <t>Linear equations correlating DO directly with COD variable outputs</t>
+  </si>
+  <si>
+    <t>Hydrodynamic predictions for each 3D model cell as inputs used</t>
+  </si>
+  <si>
+    <t>Isotropically predicting design assumptions within modeled cells</t>
+  </si>
+  <si>
+    <t>Spatial and temporal related DO factors excluded during modeling</t>
+  </si>
+  <si>
+    <t>Introducing frequent cycles alternating between aerobic and anoxic states.</t>
+  </si>
+  <si>
+    <t>Maintaining stable oxygen levels far above conventional guideline norms.</t>
+  </si>
+  <si>
+    <t>Maintaining constant inflow ammonium concentration.</t>
+  </si>
+  <si>
+    <t>Relying exclusively on long-term sampling for any operational planning.</t>
+  </si>
+  <si>
+    <t>Methane arises by anaerobic breakdown of organics.</t>
+  </si>
+  <si>
+    <t>Compounds transform under effects of ultraviolet light.</t>
+  </si>
+  <si>
+    <t>Gases form from spontaneous combustion phenomena.</t>
+  </si>
+  <si>
+    <t>Biological actions assist photosynthesis in microbes.</t>
+  </si>
+  <si>
+    <t>To incorporate benefits from data-driven and mechanistic schemes</t>
+  </si>
+  <si>
+    <t>Fully substituting mechanistic approaches in modern systems</t>
+  </si>
+  <si>
+    <t>Not utilizing small-scale empirical models for valuable inputs</t>
+  </si>
+  <si>
+    <t>Avoiding dependencies on plant-specific operational records</t>
+  </si>
+  <si>
+    <t>They underrepresent differences in nitrogen removal performance.</t>
+  </si>
+  <si>
+    <t>The protocols use a constant rate that ignores variability.</t>
+  </si>
+  <si>
+    <t>Focus is only on suspended sludge systems, omitting others.</t>
+  </si>
+  <si>
+    <t>They ignore methane measurement guidelines in protocols.</t>
   </si>
 </sst>
 </file>
@@ -12342,10 +13914,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F778"/>
+  <dimension ref="A1:F884"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A184" workbookViewId="0">
-      <selection activeCell="I189" sqref="I189"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -27916,6 +29488,2126 @@
         <v>3836</v>
       </c>
     </row>
+    <row r="779" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A779">
+        <v>778</v>
+      </c>
+      <c r="B779" t="s">
+        <v>3837</v>
+      </c>
+      <c r="C779" s="1" t="s">
+        <v>3907</v>
+      </c>
+      <c r="D779" s="1" t="s">
+        <v>3908</v>
+      </c>
+      <c r="E779" s="1" t="s">
+        <v>3909</v>
+      </c>
+      <c r="F779" s="1" t="s">
+        <v>3910</v>
+      </c>
+    </row>
+    <row r="780" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A780">
+        <v>779</v>
+      </c>
+      <c r="B780" t="s">
+        <v>3838</v>
+      </c>
+      <c r="C780" s="1" t="s">
+        <v>3911</v>
+      </c>
+      <c r="D780" s="1" t="s">
+        <v>3912</v>
+      </c>
+      <c r="E780" s="1" t="s">
+        <v>3913</v>
+      </c>
+      <c r="F780" s="1" t="s">
+        <v>3914</v>
+      </c>
+    </row>
+    <row r="781" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A781">
+        <v>780</v>
+      </c>
+      <c r="B781" t="s">
+        <v>3839</v>
+      </c>
+      <c r="C781" s="1" t="s">
+        <v>3915</v>
+      </c>
+      <c r="D781" s="1" t="s">
+        <v>3916</v>
+      </c>
+      <c r="E781" s="1" t="s">
+        <v>3917</v>
+      </c>
+      <c r="F781" s="1" t="s">
+        <v>3918</v>
+      </c>
+    </row>
+    <row r="782" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A782">
+        <v>781</v>
+      </c>
+      <c r="B782" t="s">
+        <v>3840</v>
+      </c>
+      <c r="C782" s="1" t="s">
+        <v>3919</v>
+      </c>
+      <c r="D782" s="1" t="s">
+        <v>3920</v>
+      </c>
+      <c r="E782" s="1" t="s">
+        <v>3921</v>
+      </c>
+      <c r="F782" s="1" t="s">
+        <v>3922</v>
+      </c>
+    </row>
+    <row r="783" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A783">
+        <v>782</v>
+      </c>
+      <c r="B783" t="s">
+        <v>3841</v>
+      </c>
+      <c r="C783" s="1" t="s">
+        <v>3923</v>
+      </c>
+      <c r="D783" s="1" t="s">
+        <v>3924</v>
+      </c>
+      <c r="E783" s="1" t="s">
+        <v>3925</v>
+      </c>
+      <c r="F783" s="1" t="s">
+        <v>3926</v>
+      </c>
+    </row>
+    <row r="784" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A784">
+        <v>783</v>
+      </c>
+      <c r="B784" t="s">
+        <v>3842</v>
+      </c>
+      <c r="C784" s="1" t="s">
+        <v>3927</v>
+      </c>
+      <c r="D784" s="1" t="s">
+        <v>3928</v>
+      </c>
+      <c r="E784" s="1" t="s">
+        <v>3929</v>
+      </c>
+      <c r="F784" s="1" t="s">
+        <v>3930</v>
+      </c>
+    </row>
+    <row r="785" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A785">
+        <v>784</v>
+      </c>
+      <c r="B785" t="s">
+        <v>3843</v>
+      </c>
+      <c r="C785" s="1" t="s">
+        <v>3931</v>
+      </c>
+      <c r="D785" s="1" t="s">
+        <v>3932</v>
+      </c>
+      <c r="E785" s="1" t="s">
+        <v>3933</v>
+      </c>
+      <c r="F785" s="1" t="s">
+        <v>3934</v>
+      </c>
+    </row>
+    <row r="786" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A786">
+        <v>785</v>
+      </c>
+      <c r="B786" t="s">
+        <v>3844</v>
+      </c>
+      <c r="C786" s="1" t="s">
+        <v>3935</v>
+      </c>
+      <c r="D786" s="1" t="s">
+        <v>3936</v>
+      </c>
+      <c r="E786" s="1" t="s">
+        <v>3937</v>
+      </c>
+      <c r="F786" s="1" t="s">
+        <v>3938</v>
+      </c>
+    </row>
+    <row r="787" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A787">
+        <v>786</v>
+      </c>
+      <c r="B787" t="s">
+        <v>3845</v>
+      </c>
+      <c r="C787" s="1" t="s">
+        <v>3939</v>
+      </c>
+      <c r="D787" s="1" t="s">
+        <v>3940</v>
+      </c>
+      <c r="E787" s="1" t="s">
+        <v>3941</v>
+      </c>
+      <c r="F787" s="1" t="s">
+        <v>3942</v>
+      </c>
+    </row>
+    <row r="788" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A788">
+        <v>787</v>
+      </c>
+      <c r="B788" t="s">
+        <v>3846</v>
+      </c>
+      <c r="C788" s="1" t="s">
+        <v>3943</v>
+      </c>
+      <c r="D788" s="1" t="s">
+        <v>3944</v>
+      </c>
+      <c r="E788" s="1" t="s">
+        <v>3945</v>
+      </c>
+      <c r="F788" s="1" t="s">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="789" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A789">
+        <v>788</v>
+      </c>
+      <c r="B789" t="s">
+        <v>3847</v>
+      </c>
+      <c r="C789" s="1" t="s">
+        <v>3947</v>
+      </c>
+      <c r="D789" s="1" t="s">
+        <v>3948</v>
+      </c>
+      <c r="E789" s="1" t="s">
+        <v>3949</v>
+      </c>
+      <c r="F789" s="1" t="s">
+        <v>3950</v>
+      </c>
+    </row>
+    <row r="790" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A790">
+        <v>789</v>
+      </c>
+      <c r="B790" t="s">
+        <v>3848</v>
+      </c>
+      <c r="C790" s="1" t="s">
+        <v>3951</v>
+      </c>
+      <c r="D790" s="1" t="s">
+        <v>3952</v>
+      </c>
+      <c r="E790" s="1" t="s">
+        <v>3953</v>
+      </c>
+      <c r="F790" s="1" t="s">
+        <v>3954</v>
+      </c>
+    </row>
+    <row r="791" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A791">
+        <v>790</v>
+      </c>
+      <c r="B791" t="s">
+        <v>3849</v>
+      </c>
+      <c r="C791" s="1" t="s">
+        <v>3955</v>
+      </c>
+      <c r="D791" s="1" t="s">
+        <v>3956</v>
+      </c>
+      <c r="E791" s="1" t="s">
+        <v>3957</v>
+      </c>
+      <c r="F791" s="1" t="s">
+        <v>3958</v>
+      </c>
+    </row>
+    <row r="792" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A792">
+        <v>791</v>
+      </c>
+      <c r="B792" t="s">
+        <v>3850</v>
+      </c>
+      <c r="C792" s="1" t="s">
+        <v>3959</v>
+      </c>
+      <c r="D792" s="1" t="s">
+        <v>3960</v>
+      </c>
+      <c r="E792" s="1" t="s">
+        <v>3961</v>
+      </c>
+      <c r="F792" s="1" t="s">
+        <v>3962</v>
+      </c>
+    </row>
+    <row r="793" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A793">
+        <v>792</v>
+      </c>
+      <c r="B793" t="s">
+        <v>3851</v>
+      </c>
+      <c r="C793" s="1" t="s">
+        <v>3963</v>
+      </c>
+      <c r="D793" s="1" t="s">
+        <v>3964</v>
+      </c>
+      <c r="E793" s="1" t="s">
+        <v>3965</v>
+      </c>
+      <c r="F793" s="1" t="s">
+        <v>3966</v>
+      </c>
+    </row>
+    <row r="794" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A794">
+        <v>793</v>
+      </c>
+      <c r="B794" t="s">
+        <v>3852</v>
+      </c>
+      <c r="C794" s="1" t="s">
+        <v>3967</v>
+      </c>
+      <c r="D794" s="1" t="s">
+        <v>3968</v>
+      </c>
+      <c r="E794" s="1" t="s">
+        <v>3969</v>
+      </c>
+      <c r="F794" s="1" t="s">
+        <v>3970</v>
+      </c>
+    </row>
+    <row r="795" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A795">
+        <v>794</v>
+      </c>
+      <c r="B795" t="s">
+        <v>3853</v>
+      </c>
+      <c r="C795" s="1" t="s">
+        <v>3971</v>
+      </c>
+      <c r="D795" s="1" t="s">
+        <v>3972</v>
+      </c>
+      <c r="E795" s="1" t="s">
+        <v>3973</v>
+      </c>
+      <c r="F795" s="1" t="s">
+        <v>3974</v>
+      </c>
+    </row>
+    <row r="796" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A796">
+        <v>795</v>
+      </c>
+      <c r="B796" t="s">
+        <v>3854</v>
+      </c>
+      <c r="C796" s="1" t="s">
+        <v>3975</v>
+      </c>
+      <c r="D796" s="1" t="s">
+        <v>3976</v>
+      </c>
+      <c r="E796" s="1" t="s">
+        <v>3977</v>
+      </c>
+      <c r="F796" s="1" t="s">
+        <v>3978</v>
+      </c>
+    </row>
+    <row r="797" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A797">
+        <v>796</v>
+      </c>
+      <c r="B797" t="s">
+        <v>3855</v>
+      </c>
+      <c r="C797" s="1" t="s">
+        <v>3979</v>
+      </c>
+      <c r="D797" s="1" t="s">
+        <v>3980</v>
+      </c>
+      <c r="E797" s="1" t="s">
+        <v>3981</v>
+      </c>
+      <c r="F797" s="1" t="s">
+        <v>3982</v>
+      </c>
+    </row>
+    <row r="798" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A798">
+        <v>797</v>
+      </c>
+      <c r="B798" t="s">
+        <v>3856</v>
+      </c>
+      <c r="C798" s="1" t="s">
+        <v>3983</v>
+      </c>
+      <c r="D798" s="1" t="s">
+        <v>3984</v>
+      </c>
+      <c r="E798" s="1" t="s">
+        <v>3985</v>
+      </c>
+      <c r="F798" s="1" t="s">
+        <v>3986</v>
+      </c>
+    </row>
+    <row r="799" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A799">
+        <v>798</v>
+      </c>
+      <c r="B799" t="s">
+        <v>3857</v>
+      </c>
+      <c r="C799" s="1" t="s">
+        <v>3987</v>
+      </c>
+      <c r="D799" s="1" t="s">
+        <v>3988</v>
+      </c>
+      <c r="E799" s="1" t="s">
+        <v>3989</v>
+      </c>
+      <c r="F799" s="1" t="s">
+        <v>3990</v>
+      </c>
+    </row>
+    <row r="800" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A800">
+        <v>799</v>
+      </c>
+      <c r="B800" t="s">
+        <v>3858</v>
+      </c>
+      <c r="C800" s="1" t="s">
+        <v>3991</v>
+      </c>
+      <c r="D800" s="1" t="s">
+        <v>3992</v>
+      </c>
+      <c r="E800" s="1" t="s">
+        <v>3993</v>
+      </c>
+      <c r="F800" s="1" t="s">
+        <v>3994</v>
+      </c>
+    </row>
+    <row r="801" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A801">
+        <v>800</v>
+      </c>
+      <c r="B801" t="s">
+        <v>3859</v>
+      </c>
+      <c r="C801" s="1" t="s">
+        <v>3995</v>
+      </c>
+      <c r="D801" s="1" t="s">
+        <v>3996</v>
+      </c>
+      <c r="E801" s="1" t="s">
+        <v>3997</v>
+      </c>
+      <c r="F801" s="1" t="s">
+        <v>3998</v>
+      </c>
+    </row>
+    <row r="802" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A802">
+        <v>801</v>
+      </c>
+      <c r="B802" t="s">
+        <v>3860</v>
+      </c>
+      <c r="C802" s="1" t="s">
+        <v>3999</v>
+      </c>
+      <c r="D802" s="1" t="s">
+        <v>4000</v>
+      </c>
+      <c r="E802" s="1" t="s">
+        <v>4001</v>
+      </c>
+      <c r="F802" s="1" t="s">
+        <v>4002</v>
+      </c>
+    </row>
+    <row r="803" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A803">
+        <v>802</v>
+      </c>
+      <c r="B803" t="s">
+        <v>3861</v>
+      </c>
+      <c r="C803" s="1" t="s">
+        <v>4003</v>
+      </c>
+      <c r="D803" s="1" t="s">
+        <v>4004</v>
+      </c>
+      <c r="E803" s="1" t="s">
+        <v>4005</v>
+      </c>
+      <c r="F803" s="1" t="s">
+        <v>4006</v>
+      </c>
+    </row>
+    <row r="804" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A804">
+        <v>803</v>
+      </c>
+      <c r="B804" t="s">
+        <v>3862</v>
+      </c>
+      <c r="C804" s="1" t="s">
+        <v>4007</v>
+      </c>
+      <c r="D804" s="1" t="s">
+        <v>4008</v>
+      </c>
+      <c r="E804" s="1" t="s">
+        <v>4009</v>
+      </c>
+      <c r="F804" s="1" t="s">
+        <v>4010</v>
+      </c>
+    </row>
+    <row r="805" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A805">
+        <v>804</v>
+      </c>
+      <c r="B805" t="s">
+        <v>3863</v>
+      </c>
+      <c r="C805" s="1" t="s">
+        <v>4011</v>
+      </c>
+      <c r="D805" s="1" t="s">
+        <v>4012</v>
+      </c>
+      <c r="E805" s="1" t="s">
+        <v>4013</v>
+      </c>
+      <c r="F805" s="1" t="s">
+        <v>4014</v>
+      </c>
+    </row>
+    <row r="806" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A806">
+        <v>805</v>
+      </c>
+      <c r="B806" t="s">
+        <v>3864</v>
+      </c>
+      <c r="C806" s="1" t="s">
+        <v>4015</v>
+      </c>
+      <c r="D806" s="1" t="s">
+        <v>4016</v>
+      </c>
+      <c r="E806" s="1" t="s">
+        <v>4017</v>
+      </c>
+      <c r="F806" s="1" t="s">
+        <v>4018</v>
+      </c>
+    </row>
+    <row r="807" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A807">
+        <v>806</v>
+      </c>
+      <c r="B807" t="s">
+        <v>3865</v>
+      </c>
+      <c r="C807" s="1" t="s">
+        <v>4019</v>
+      </c>
+      <c r="D807" s="1" t="s">
+        <v>4020</v>
+      </c>
+      <c r="E807" s="1" t="s">
+        <v>4021</v>
+      </c>
+      <c r="F807" s="1" t="s">
+        <v>4022</v>
+      </c>
+    </row>
+    <row r="808" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A808">
+        <v>807</v>
+      </c>
+      <c r="B808" t="s">
+        <v>3866</v>
+      </c>
+      <c r="C808" s="1" t="s">
+        <v>4023</v>
+      </c>
+      <c r="D808" s="1" t="s">
+        <v>4024</v>
+      </c>
+      <c r="E808" s="1" t="s">
+        <v>4025</v>
+      </c>
+      <c r="F808" s="1" t="s">
+        <v>4026</v>
+      </c>
+    </row>
+    <row r="809" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A809">
+        <v>808</v>
+      </c>
+      <c r="B809" t="s">
+        <v>3867</v>
+      </c>
+      <c r="C809" s="1" t="s">
+        <v>4027</v>
+      </c>
+      <c r="D809" s="1" t="s">
+        <v>4028</v>
+      </c>
+      <c r="E809" s="1" t="s">
+        <v>4029</v>
+      </c>
+      <c r="F809" s="1" t="s">
+        <v>4030</v>
+      </c>
+    </row>
+    <row r="810" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A810">
+        <v>809</v>
+      </c>
+      <c r="B810" t="s">
+        <v>3868</v>
+      </c>
+      <c r="C810" s="1" t="s">
+        <v>4031</v>
+      </c>
+      <c r="D810" s="1" t="s">
+        <v>4032</v>
+      </c>
+      <c r="E810" s="1" t="s">
+        <v>4033</v>
+      </c>
+      <c r="F810" s="1" t="s">
+        <v>4034</v>
+      </c>
+    </row>
+    <row r="811" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A811">
+        <v>810</v>
+      </c>
+      <c r="B811" t="s">
+        <v>3869</v>
+      </c>
+      <c r="C811" s="1" t="s">
+        <v>4035</v>
+      </c>
+      <c r="D811" s="1" t="s">
+        <v>4036</v>
+      </c>
+      <c r="E811" s="1" t="s">
+        <v>4037</v>
+      </c>
+      <c r="F811" s="1" t="s">
+        <v>4038</v>
+      </c>
+    </row>
+    <row r="812" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A812">
+        <v>811</v>
+      </c>
+      <c r="B812" t="s">
+        <v>3870</v>
+      </c>
+      <c r="C812" s="1" t="s">
+        <v>4039</v>
+      </c>
+      <c r="D812" s="1" t="s">
+        <v>4040</v>
+      </c>
+      <c r="E812" s="1" t="s">
+        <v>4041</v>
+      </c>
+      <c r="F812" s="1" t="s">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="813" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A813">
+        <v>812</v>
+      </c>
+      <c r="B813" t="s">
+        <v>3871</v>
+      </c>
+      <c r="C813" s="1" t="s">
+        <v>2722</v>
+      </c>
+      <c r="D813" s="1" t="s">
+        <v>4043</v>
+      </c>
+      <c r="E813" s="1" t="s">
+        <v>4044</v>
+      </c>
+      <c r="F813" s="1" t="s">
+        <v>4045</v>
+      </c>
+    </row>
+    <row r="814" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A814">
+        <v>813</v>
+      </c>
+      <c r="B814" t="s">
+        <v>3872</v>
+      </c>
+      <c r="C814" s="1" t="s">
+        <v>4046</v>
+      </c>
+      <c r="D814" s="1" t="s">
+        <v>4047</v>
+      </c>
+      <c r="E814" s="1" t="s">
+        <v>4048</v>
+      </c>
+      <c r="F814" s="1" t="s">
+        <v>4049</v>
+      </c>
+    </row>
+    <row r="815" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A815">
+        <v>814</v>
+      </c>
+      <c r="B815" t="s">
+        <v>3873</v>
+      </c>
+      <c r="C815" s="1" t="s">
+        <v>4050</v>
+      </c>
+      <c r="D815" s="1" t="s">
+        <v>4051</v>
+      </c>
+      <c r="E815" s="1" t="s">
+        <v>4052</v>
+      </c>
+      <c r="F815" s="1" t="s">
+        <v>4053</v>
+      </c>
+    </row>
+    <row r="816" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A816">
+        <v>815</v>
+      </c>
+      <c r="B816" t="s">
+        <v>3874</v>
+      </c>
+      <c r="C816" s="1" t="s">
+        <v>4054</v>
+      </c>
+      <c r="D816" s="1" t="s">
+        <v>4055</v>
+      </c>
+      <c r="E816" s="1" t="s">
+        <v>4056</v>
+      </c>
+      <c r="F816" s="1" t="s">
+        <v>4057</v>
+      </c>
+    </row>
+    <row r="817" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A817">
+        <v>816</v>
+      </c>
+      <c r="B817" t="s">
+        <v>3875</v>
+      </c>
+      <c r="C817" s="1" t="s">
+        <v>4058</v>
+      </c>
+      <c r="D817" s="1" t="s">
+        <v>4059</v>
+      </c>
+      <c r="E817" s="1" t="s">
+        <v>4060</v>
+      </c>
+      <c r="F817" s="1" t="s">
+        <v>4061</v>
+      </c>
+    </row>
+    <row r="818" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A818">
+        <v>817</v>
+      </c>
+      <c r="B818" t="s">
+        <v>3876</v>
+      </c>
+      <c r="C818" s="1" t="s">
+        <v>4062</v>
+      </c>
+      <c r="D818" s="1" t="s">
+        <v>4063</v>
+      </c>
+      <c r="E818" s="1" t="s">
+        <v>4064</v>
+      </c>
+      <c r="F818" s="1" t="s">
+        <v>4065</v>
+      </c>
+    </row>
+    <row r="819" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A819">
+        <v>818</v>
+      </c>
+      <c r="B819" t="s">
+        <v>3877</v>
+      </c>
+      <c r="C819" s="1" t="s">
+        <v>4066</v>
+      </c>
+      <c r="D819" s="1" t="s">
+        <v>4067</v>
+      </c>
+      <c r="E819" s="1" t="s">
+        <v>4068</v>
+      </c>
+      <c r="F819" s="1" t="s">
+        <v>4069</v>
+      </c>
+    </row>
+    <row r="820" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A820">
+        <v>819</v>
+      </c>
+      <c r="B820" t="s">
+        <v>3878</v>
+      </c>
+      <c r="C820" s="1" t="s">
+        <v>4070</v>
+      </c>
+      <c r="D820" s="1" t="s">
+        <v>4071</v>
+      </c>
+      <c r="E820" s="1" t="s">
+        <v>4072</v>
+      </c>
+      <c r="F820" s="1" t="s">
+        <v>4073</v>
+      </c>
+    </row>
+    <row r="821" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A821">
+        <v>820</v>
+      </c>
+      <c r="B821" t="s">
+        <v>3879</v>
+      </c>
+      <c r="C821" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="D821" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="E821" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F821" s="1" t="s">
+        <v>4074</v>
+      </c>
+    </row>
+    <row r="822" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A822">
+        <v>821</v>
+      </c>
+      <c r="B822" t="s">
+        <v>3880</v>
+      </c>
+      <c r="C822" s="1" t="s">
+        <v>4075</v>
+      </c>
+      <c r="D822" s="1" t="s">
+        <v>4076</v>
+      </c>
+      <c r="E822" s="1" t="s">
+        <v>4077</v>
+      </c>
+      <c r="F822" s="1" t="s">
+        <v>4078</v>
+      </c>
+    </row>
+    <row r="823" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A823">
+        <v>822</v>
+      </c>
+      <c r="B823" t="s">
+        <v>3881</v>
+      </c>
+      <c r="C823" s="1" t="s">
+        <v>4079</v>
+      </c>
+      <c r="D823" s="1" t="s">
+        <v>2469</v>
+      </c>
+      <c r="E823" s="1" t="s">
+        <v>4080</v>
+      </c>
+      <c r="F823" s="1" t="s">
+        <v>4081</v>
+      </c>
+    </row>
+    <row r="824" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A824">
+        <v>823</v>
+      </c>
+      <c r="B824" t="s">
+        <v>3882</v>
+      </c>
+      <c r="C824" s="1" t="s">
+        <v>4082</v>
+      </c>
+      <c r="D824" s="1" t="s">
+        <v>4083</v>
+      </c>
+      <c r="E824" s="1" t="s">
+        <v>4084</v>
+      </c>
+      <c r="F824" s="1" t="s">
+        <v>4085</v>
+      </c>
+    </row>
+    <row r="825" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A825">
+        <v>824</v>
+      </c>
+      <c r="B825" t="s">
+        <v>3883</v>
+      </c>
+      <c r="C825" s="1" t="s">
+        <v>4086</v>
+      </c>
+      <c r="D825" s="1" t="s">
+        <v>4087</v>
+      </c>
+      <c r="E825" s="1" t="s">
+        <v>4088</v>
+      </c>
+      <c r="F825" s="1" t="s">
+        <v>4089</v>
+      </c>
+    </row>
+    <row r="826" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A826">
+        <v>825</v>
+      </c>
+      <c r="B826" t="s">
+        <v>3884</v>
+      </c>
+      <c r="C826" s="1" t="s">
+        <v>4090</v>
+      </c>
+      <c r="D826" s="1" t="s">
+        <v>4091</v>
+      </c>
+      <c r="E826" s="1" t="s">
+        <v>4092</v>
+      </c>
+      <c r="F826" s="1" t="s">
+        <v>4093</v>
+      </c>
+    </row>
+    <row r="827" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A827">
+        <v>826</v>
+      </c>
+      <c r="B827" t="s">
+        <v>3885</v>
+      </c>
+      <c r="C827" s="1" t="s">
+        <v>4094</v>
+      </c>
+      <c r="D827" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E827" s="1" t="s">
+        <v>4095</v>
+      </c>
+      <c r="F827" s="1" t="s">
+        <v>4096</v>
+      </c>
+    </row>
+    <row r="828" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A828">
+        <v>827</v>
+      </c>
+      <c r="B828" t="s">
+        <v>3886</v>
+      </c>
+      <c r="C828" s="1" t="s">
+        <v>4097</v>
+      </c>
+      <c r="D828" s="1" t="s">
+        <v>4098</v>
+      </c>
+      <c r="E828" s="1" t="s">
+        <v>4099</v>
+      </c>
+      <c r="F828" s="1" t="s">
+        <v>4100</v>
+      </c>
+    </row>
+    <row r="829" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A829">
+        <v>828</v>
+      </c>
+      <c r="B829" t="s">
+        <v>3887</v>
+      </c>
+      <c r="C829" s="1" t="s">
+        <v>4101</v>
+      </c>
+      <c r="D829" s="1" t="s">
+        <v>4102</v>
+      </c>
+      <c r="E829" s="1" t="s">
+        <v>4103</v>
+      </c>
+      <c r="F829" s="1" t="s">
+        <v>4104</v>
+      </c>
+    </row>
+    <row r="830" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A830">
+        <v>829</v>
+      </c>
+      <c r="B830" t="s">
+        <v>3888</v>
+      </c>
+      <c r="C830" s="1" t="s">
+        <v>4105</v>
+      </c>
+      <c r="D830" s="1" t="s">
+        <v>4106</v>
+      </c>
+      <c r="E830" s="1" t="s">
+        <v>4107</v>
+      </c>
+      <c r="F830" s="1" t="s">
+        <v>4108</v>
+      </c>
+    </row>
+    <row r="831" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A831">
+        <v>830</v>
+      </c>
+      <c r="B831" t="s">
+        <v>3889</v>
+      </c>
+      <c r="C831" s="1" t="s">
+        <v>4109</v>
+      </c>
+      <c r="D831" s="1" t="s">
+        <v>4110</v>
+      </c>
+      <c r="E831" s="1" t="s">
+        <v>4111</v>
+      </c>
+      <c r="F831" s="1" t="s">
+        <v>4112</v>
+      </c>
+    </row>
+    <row r="832" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A832">
+        <v>831</v>
+      </c>
+      <c r="B832" t="s">
+        <v>3890</v>
+      </c>
+      <c r="C832" s="1" t="s">
+        <v>4113</v>
+      </c>
+      <c r="D832" s="1" t="s">
+        <v>4114</v>
+      </c>
+      <c r="E832" s="1" t="s">
+        <v>4115</v>
+      </c>
+      <c r="F832" s="1" t="s">
+        <v>4116</v>
+      </c>
+    </row>
+    <row r="833" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A833">
+        <v>832</v>
+      </c>
+      <c r="B833" t="s">
+        <v>3891</v>
+      </c>
+      <c r="C833" s="1" t="s">
+        <v>4117</v>
+      </c>
+      <c r="D833" s="1" t="s">
+        <v>4118</v>
+      </c>
+      <c r="E833" s="1" t="s">
+        <v>4119</v>
+      </c>
+      <c r="F833" s="1" t="s">
+        <v>4120</v>
+      </c>
+    </row>
+    <row r="834" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A834">
+        <v>833</v>
+      </c>
+      <c r="B834" t="s">
+        <v>3892</v>
+      </c>
+      <c r="C834" s="1" t="s">
+        <v>4121</v>
+      </c>
+      <c r="D834" s="1" t="s">
+        <v>4122</v>
+      </c>
+      <c r="E834" s="1" t="s">
+        <v>4123</v>
+      </c>
+      <c r="F834" s="1" t="s">
+        <v>4124</v>
+      </c>
+    </row>
+    <row r="835" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A835">
+        <v>834</v>
+      </c>
+      <c r="B835" t="s">
+        <v>3893</v>
+      </c>
+      <c r="C835" s="1" t="s">
+        <v>4125</v>
+      </c>
+      <c r="D835" s="1" t="s">
+        <v>4126</v>
+      </c>
+      <c r="E835" s="1" t="s">
+        <v>4127</v>
+      </c>
+      <c r="F835" s="1" t="s">
+        <v>4128</v>
+      </c>
+    </row>
+    <row r="836" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A836">
+        <v>835</v>
+      </c>
+      <c r="B836" t="s">
+        <v>3894</v>
+      </c>
+      <c r="C836" s="1" t="s">
+        <v>4129</v>
+      </c>
+      <c r="D836" s="1" t="s">
+        <v>4130</v>
+      </c>
+      <c r="E836" s="1" t="s">
+        <v>4131</v>
+      </c>
+      <c r="F836" s="1" t="s">
+        <v>4132</v>
+      </c>
+    </row>
+    <row r="837" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A837">
+        <v>836</v>
+      </c>
+      <c r="B837" t="s">
+        <v>3895</v>
+      </c>
+      <c r="C837" s="1" t="s">
+        <v>4133</v>
+      </c>
+      <c r="D837" s="1" t="s">
+        <v>4134</v>
+      </c>
+      <c r="E837" s="1" t="s">
+        <v>4135</v>
+      </c>
+      <c r="F837" s="1" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="838" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A838">
+        <v>837</v>
+      </c>
+      <c r="B838" t="s">
+        <v>3896</v>
+      </c>
+      <c r="C838" s="1" t="s">
+        <v>4137</v>
+      </c>
+      <c r="D838" s="1" t="s">
+        <v>4138</v>
+      </c>
+      <c r="E838" s="1" t="s">
+        <v>4139</v>
+      </c>
+      <c r="F838" s="1" t="s">
+        <v>4140</v>
+      </c>
+    </row>
+    <row r="839" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A839">
+        <v>838</v>
+      </c>
+      <c r="B839" t="s">
+        <v>3897</v>
+      </c>
+      <c r="C839" s="1" t="s">
+        <v>4141</v>
+      </c>
+      <c r="D839" s="1" t="s">
+        <v>4142</v>
+      </c>
+      <c r="E839" s="1" t="s">
+        <v>4143</v>
+      </c>
+      <c r="F839" s="1" t="s">
+        <v>4144</v>
+      </c>
+    </row>
+    <row r="840" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A840">
+        <v>839</v>
+      </c>
+      <c r="B840" t="s">
+        <v>3898</v>
+      </c>
+      <c r="C840" s="1" t="s">
+        <v>4145</v>
+      </c>
+      <c r="D840" s="1" t="s">
+        <v>4146</v>
+      </c>
+      <c r="E840" s="1" t="s">
+        <v>4147</v>
+      </c>
+      <c r="F840" s="1" t="s">
+        <v>4148</v>
+      </c>
+    </row>
+    <row r="841" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A841">
+        <v>840</v>
+      </c>
+      <c r="B841" t="s">
+        <v>3899</v>
+      </c>
+      <c r="C841" s="1" t="s">
+        <v>4149</v>
+      </c>
+      <c r="D841" s="1" t="s">
+        <v>4150</v>
+      </c>
+      <c r="E841" s="1" t="s">
+        <v>4151</v>
+      </c>
+      <c r="F841" s="1" t="s">
+        <v>4152</v>
+      </c>
+    </row>
+    <row r="842" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A842">
+        <v>841</v>
+      </c>
+      <c r="B842" t="s">
+        <v>3900</v>
+      </c>
+      <c r="C842" s="1" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D842" s="1" t="s">
+        <v>4154</v>
+      </c>
+      <c r="E842" s="1" t="s">
+        <v>4155</v>
+      </c>
+      <c r="F842" s="1" t="s">
+        <v>4156</v>
+      </c>
+    </row>
+    <row r="843" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A843">
+        <v>842</v>
+      </c>
+      <c r="B843" t="s">
+        <v>3901</v>
+      </c>
+      <c r="C843" s="1" t="s">
+        <v>4157</v>
+      </c>
+      <c r="D843" s="1" t="s">
+        <v>4158</v>
+      </c>
+      <c r="E843" s="1" t="s">
+        <v>4159</v>
+      </c>
+      <c r="F843" s="1" t="s">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="844" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A844">
+        <v>843</v>
+      </c>
+      <c r="B844" t="s">
+        <v>3902</v>
+      </c>
+      <c r="C844" s="1" t="s">
+        <v>4161</v>
+      </c>
+      <c r="D844" s="1" t="s">
+        <v>4162</v>
+      </c>
+      <c r="E844" s="1" t="s">
+        <v>4163</v>
+      </c>
+      <c r="F844" s="1" t="s">
+        <v>4164</v>
+      </c>
+    </row>
+    <row r="845" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A845">
+        <v>844</v>
+      </c>
+      <c r="B845" t="s">
+        <v>3903</v>
+      </c>
+      <c r="C845" s="1" t="s">
+        <v>4165</v>
+      </c>
+      <c r="D845" s="1" t="s">
+        <v>4166</v>
+      </c>
+      <c r="E845" s="1" t="s">
+        <v>4167</v>
+      </c>
+      <c r="F845" s="1" t="s">
+        <v>4168</v>
+      </c>
+    </row>
+    <row r="846" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A846">
+        <v>845</v>
+      </c>
+      <c r="B846" t="s">
+        <v>3904</v>
+      </c>
+      <c r="C846" s="1" t="s">
+        <v>4169</v>
+      </c>
+      <c r="D846" s="1" t="s">
+        <v>4170</v>
+      </c>
+      <c r="E846" s="1" t="s">
+        <v>4171</v>
+      </c>
+      <c r="F846" s="1" t="s">
+        <v>4172</v>
+      </c>
+    </row>
+    <row r="847" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A847">
+        <v>846</v>
+      </c>
+      <c r="B847" t="s">
+        <v>3905</v>
+      </c>
+      <c r="C847" s="1" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D847" s="1" t="s">
+        <v>4174</v>
+      </c>
+      <c r="E847" s="1" t="s">
+        <v>4175</v>
+      </c>
+      <c r="F847" s="1" t="s">
+        <v>4176</v>
+      </c>
+    </row>
+    <row r="848" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A848">
+        <v>847</v>
+      </c>
+      <c r="B848" t="s">
+        <v>3906</v>
+      </c>
+      <c r="C848" s="1" t="s">
+        <v>4177</v>
+      </c>
+      <c r="D848" s="1" t="s">
+        <v>4178</v>
+      </c>
+      <c r="E848" s="1" t="s">
+        <v>4179</v>
+      </c>
+      <c r="F848" s="1" t="s">
+        <v>4180</v>
+      </c>
+    </row>
+    <row r="849" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A849">
+        <v>848</v>
+      </c>
+      <c r="B849" t="s">
+        <v>4181</v>
+      </c>
+      <c r="C849" s="1" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D849" s="1" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E849" s="1" t="s">
+        <v>4219</v>
+      </c>
+      <c r="F849" s="1" t="s">
+        <v>4220</v>
+      </c>
+    </row>
+    <row r="850" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A850">
+        <v>849</v>
+      </c>
+      <c r="B850" t="s">
+        <v>4182</v>
+      </c>
+      <c r="C850" s="1" t="s">
+        <v>4221</v>
+      </c>
+      <c r="D850" s="1" t="s">
+        <v>4222</v>
+      </c>
+      <c r="E850" s="1" t="s">
+        <v>4223</v>
+      </c>
+      <c r="F850" s="1" t="s">
+        <v>4224</v>
+      </c>
+    </row>
+    <row r="851" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A851">
+        <v>850</v>
+      </c>
+      <c r="B851" t="s">
+        <v>4183</v>
+      </c>
+      <c r="C851" s="1" t="s">
+        <v>4225</v>
+      </c>
+      <c r="D851" s="1" t="s">
+        <v>4226</v>
+      </c>
+      <c r="E851" s="1" t="s">
+        <v>4227</v>
+      </c>
+      <c r="F851" s="1" t="s">
+        <v>4228</v>
+      </c>
+    </row>
+    <row r="852" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A852">
+        <v>851</v>
+      </c>
+      <c r="B852" t="s">
+        <v>4184</v>
+      </c>
+      <c r="C852" s="1" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D852" s="1" t="s">
+        <v>4230</v>
+      </c>
+      <c r="E852" s="1" t="s">
+        <v>4231</v>
+      </c>
+      <c r="F852" s="1" t="s">
+        <v>4232</v>
+      </c>
+    </row>
+    <row r="853" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A853">
+        <v>852</v>
+      </c>
+      <c r="B853" t="s">
+        <v>4185</v>
+      </c>
+      <c r="C853" s="1" t="s">
+        <v>4233</v>
+      </c>
+      <c r="D853" s="1" t="s">
+        <v>4234</v>
+      </c>
+      <c r="E853" s="1" t="s">
+        <v>4235</v>
+      </c>
+      <c r="F853" s="1" t="s">
+        <v>4236</v>
+      </c>
+    </row>
+    <row r="854" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A854">
+        <v>853</v>
+      </c>
+      <c r="B854" t="s">
+        <v>4186</v>
+      </c>
+      <c r="C854" s="1" t="s">
+        <v>4237</v>
+      </c>
+      <c r="D854" s="1" t="s">
+        <v>4238</v>
+      </c>
+      <c r="E854" s="1" t="s">
+        <v>4239</v>
+      </c>
+      <c r="F854" s="1" t="s">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="855" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A855">
+        <v>854</v>
+      </c>
+      <c r="B855" t="s">
+        <v>4187</v>
+      </c>
+      <c r="C855" s="1" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D855" s="1" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E855" s="1" t="s">
+        <v>4243</v>
+      </c>
+      <c r="F855" s="1" t="s">
+        <v>4244</v>
+      </c>
+    </row>
+    <row r="856" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A856">
+        <v>855</v>
+      </c>
+      <c r="B856" t="s">
+        <v>4188</v>
+      </c>
+      <c r="C856" s="1" t="s">
+        <v>4245</v>
+      </c>
+      <c r="D856" s="1" t="s">
+        <v>4246</v>
+      </c>
+      <c r="E856" s="1" t="s">
+        <v>4247</v>
+      </c>
+      <c r="F856" s="1" t="s">
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="857" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A857">
+        <v>856</v>
+      </c>
+      <c r="B857" t="s">
+        <v>4189</v>
+      </c>
+      <c r="C857" s="1" t="s">
+        <v>4249</v>
+      </c>
+      <c r="D857" s="1" t="s">
+        <v>4250</v>
+      </c>
+      <c r="E857" s="1" t="s">
+        <v>4251</v>
+      </c>
+      <c r="F857" s="1" t="s">
+        <v>4252</v>
+      </c>
+    </row>
+    <row r="858" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A858">
+        <v>857</v>
+      </c>
+      <c r="B858" t="s">
+        <v>4190</v>
+      </c>
+      <c r="C858" s="1" t="s">
+        <v>4253</v>
+      </c>
+      <c r="D858" s="1" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E858" s="1" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F858" s="1" t="s">
+        <v>4256</v>
+      </c>
+    </row>
+    <row r="859" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A859">
+        <v>858</v>
+      </c>
+      <c r="B859" t="s">
+        <v>4191</v>
+      </c>
+      <c r="C859" s="1" t="s">
+        <v>4257</v>
+      </c>
+      <c r="D859" s="1" t="s">
+        <v>4258</v>
+      </c>
+      <c r="E859" s="1" t="s">
+        <v>4259</v>
+      </c>
+      <c r="F859" s="1" t="s">
+        <v>4260</v>
+      </c>
+    </row>
+    <row r="860" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A860">
+        <v>859</v>
+      </c>
+      <c r="B860" t="s">
+        <v>4192</v>
+      </c>
+      <c r="C860" s="1" t="s">
+        <v>4261</v>
+      </c>
+      <c r="D860" s="1" t="s">
+        <v>4262</v>
+      </c>
+      <c r="E860" s="1" t="s">
+        <v>4263</v>
+      </c>
+      <c r="F860" s="1" t="s">
+        <v>4264</v>
+      </c>
+    </row>
+    <row r="861" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A861">
+        <v>860</v>
+      </c>
+      <c r="B861" t="s">
+        <v>4193</v>
+      </c>
+      <c r="C861" s="1" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D861" s="1" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E861" s="1" t="s">
+        <v>4267</v>
+      </c>
+      <c r="F861" s="1" t="s">
+        <v>4268</v>
+      </c>
+    </row>
+    <row r="862" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A862">
+        <v>861</v>
+      </c>
+      <c r="B862" t="s">
+        <v>4194</v>
+      </c>
+      <c r="C862" s="1" t="s">
+        <v>4269</v>
+      </c>
+      <c r="D862" s="1" t="s">
+        <v>4270</v>
+      </c>
+      <c r="E862" s="1" t="s">
+        <v>4271</v>
+      </c>
+      <c r="F862" s="1" t="s">
+        <v>4272</v>
+      </c>
+    </row>
+    <row r="863" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A863">
+        <v>862</v>
+      </c>
+      <c r="B863" t="s">
+        <v>4195</v>
+      </c>
+      <c r="C863" s="1" t="s">
+        <v>4273</v>
+      </c>
+      <c r="D863" s="1" t="s">
+        <v>4274</v>
+      </c>
+      <c r="E863" s="1" t="s">
+        <v>4275</v>
+      </c>
+      <c r="F863" s="1" t="s">
+        <v>4276</v>
+      </c>
+    </row>
+    <row r="864" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A864">
+        <v>863</v>
+      </c>
+      <c r="B864" t="s">
+        <v>4196</v>
+      </c>
+      <c r="C864" s="1" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D864" s="1" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E864" s="1" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F864" s="1" t="s">
+        <v>4280</v>
+      </c>
+    </row>
+    <row r="865" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A865">
+        <v>864</v>
+      </c>
+      <c r="B865" t="s">
+        <v>4197</v>
+      </c>
+      <c r="C865" s="1" t="s">
+        <v>4281</v>
+      </c>
+      <c r="D865" s="1" t="s">
+        <v>4282</v>
+      </c>
+      <c r="E865" s="1" t="s">
+        <v>4283</v>
+      </c>
+      <c r="F865" s="1" t="s">
+        <v>4284</v>
+      </c>
+    </row>
+    <row r="866" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A866">
+        <v>865</v>
+      </c>
+      <c r="B866" t="s">
+        <v>4198</v>
+      </c>
+      <c r="C866" s="1" t="s">
+        <v>4285</v>
+      </c>
+      <c r="D866" s="1" t="s">
+        <v>4286</v>
+      </c>
+      <c r="E866" s="1" t="s">
+        <v>4287</v>
+      </c>
+      <c r="F866" s="1" t="s">
+        <v>4288</v>
+      </c>
+    </row>
+    <row r="867" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A867">
+        <v>866</v>
+      </c>
+      <c r="B867" t="s">
+        <v>4199</v>
+      </c>
+      <c r="C867" s="1" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D867" s="1" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E867" s="1" t="s">
+        <v>4291</v>
+      </c>
+      <c r="F867" s="1" t="s">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="868" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A868">
+        <v>867</v>
+      </c>
+      <c r="B868" t="s">
+        <v>4200</v>
+      </c>
+      <c r="C868" s="1" t="s">
+        <v>4293</v>
+      </c>
+      <c r="D868" s="1" t="s">
+        <v>4294</v>
+      </c>
+      <c r="E868" s="1" t="s">
+        <v>4295</v>
+      </c>
+      <c r="F868" s="1" t="s">
+        <v>4296</v>
+      </c>
+    </row>
+    <row r="869" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A869">
+        <v>868</v>
+      </c>
+      <c r="B869" t="s">
+        <v>4201</v>
+      </c>
+      <c r="C869" s="1" t="s">
+        <v>4297</v>
+      </c>
+      <c r="D869" s="1" t="s">
+        <v>4298</v>
+      </c>
+      <c r="E869" s="1" t="s">
+        <v>4299</v>
+      </c>
+      <c r="F869" s="1" t="s">
+        <v>4300</v>
+      </c>
+    </row>
+    <row r="870" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A870">
+        <v>869</v>
+      </c>
+      <c r="B870" t="s">
+        <v>4202</v>
+      </c>
+      <c r="C870" s="1" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D870" s="1" t="s">
+        <v>4302</v>
+      </c>
+      <c r="E870" s="1" t="s">
+        <v>4303</v>
+      </c>
+      <c r="F870" s="1" t="s">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="871" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A871">
+        <v>870</v>
+      </c>
+      <c r="B871" t="s">
+        <v>4203</v>
+      </c>
+      <c r="C871" s="1" t="s">
+        <v>4305</v>
+      </c>
+      <c r="D871" s="1" t="s">
+        <v>4306</v>
+      </c>
+      <c r="E871" s="1" t="s">
+        <v>4307</v>
+      </c>
+      <c r="F871" s="1" t="s">
+        <v>4308</v>
+      </c>
+    </row>
+    <row r="872" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A872">
+        <v>871</v>
+      </c>
+      <c r="B872" t="s">
+        <v>4204</v>
+      </c>
+      <c r="C872" s="1" t="s">
+        <v>4309</v>
+      </c>
+      <c r="D872" s="1" t="s">
+        <v>4310</v>
+      </c>
+      <c r="E872" s="1" t="s">
+        <v>4311</v>
+      </c>
+      <c r="F872" s="1" t="s">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="873" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A873">
+        <v>872</v>
+      </c>
+      <c r="B873" t="s">
+        <v>4205</v>
+      </c>
+      <c r="C873" s="1" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D873" s="1" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E873" s="1" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F873" s="1" t="s">
+        <v>4316</v>
+      </c>
+    </row>
+    <row r="874" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A874">
+        <v>873</v>
+      </c>
+      <c r="B874" t="s">
+        <v>4206</v>
+      </c>
+      <c r="C874" s="1" t="s">
+        <v>4317</v>
+      </c>
+      <c r="D874" s="1" t="s">
+        <v>4318</v>
+      </c>
+      <c r="E874" s="1" t="s">
+        <v>4319</v>
+      </c>
+      <c r="F874" s="1" t="s">
+        <v>4320</v>
+      </c>
+    </row>
+    <row r="875" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A875">
+        <v>874</v>
+      </c>
+      <c r="B875" t="s">
+        <v>4207</v>
+      </c>
+      <c r="C875" s="1" t="s">
+        <v>4321</v>
+      </c>
+      <c r="D875" s="1" t="s">
+        <v>4322</v>
+      </c>
+      <c r="E875" s="1" t="s">
+        <v>4323</v>
+      </c>
+      <c r="F875" s="1" t="s">
+        <v>4324</v>
+      </c>
+    </row>
+    <row r="876" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A876">
+        <v>875</v>
+      </c>
+      <c r="B876" t="s">
+        <v>4208</v>
+      </c>
+      <c r="C876" s="1" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D876" s="1" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E876" s="1" t="s">
+        <v>4327</v>
+      </c>
+      <c r="F876" s="1" t="s">
+        <v>4328</v>
+      </c>
+    </row>
+    <row r="877" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A877">
+        <v>876</v>
+      </c>
+      <c r="B877" t="s">
+        <v>4209</v>
+      </c>
+      <c r="C877" s="1" t="s">
+        <v>4329</v>
+      </c>
+      <c r="D877" s="1" t="s">
+        <v>4330</v>
+      </c>
+      <c r="E877" s="1" t="s">
+        <v>4331</v>
+      </c>
+      <c r="F877" s="1" t="s">
+        <v>4332</v>
+      </c>
+    </row>
+    <row r="878" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A878">
+        <v>877</v>
+      </c>
+      <c r="B878" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C878" s="1" t="s">
+        <v>4333</v>
+      </c>
+      <c r="D878" s="1" t="s">
+        <v>4334</v>
+      </c>
+      <c r="E878" s="1" t="s">
+        <v>4335</v>
+      </c>
+      <c r="F878" s="1" t="s">
+        <v>4336</v>
+      </c>
+    </row>
+    <row r="879" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A879">
+        <v>878</v>
+      </c>
+      <c r="B879" t="s">
+        <v>4211</v>
+      </c>
+      <c r="C879" s="1" t="s">
+        <v>4337</v>
+      </c>
+      <c r="D879" s="1" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E879" s="1" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F879" s="1" t="s">
+        <v>4340</v>
+      </c>
+    </row>
+    <row r="880" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A880">
+        <v>879</v>
+      </c>
+      <c r="B880" t="s">
+        <v>4212</v>
+      </c>
+      <c r="C880" s="1" t="s">
+        <v>4341</v>
+      </c>
+      <c r="D880" s="1" t="s">
+        <v>4342</v>
+      </c>
+      <c r="E880" s="1" t="s">
+        <v>4343</v>
+      </c>
+      <c r="F880" s="1" t="s">
+        <v>4344</v>
+      </c>
+    </row>
+    <row r="881" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A881">
+        <v>880</v>
+      </c>
+      <c r="B881" t="s">
+        <v>4213</v>
+      </c>
+      <c r="C881" s="1" t="s">
+        <v>4345</v>
+      </c>
+      <c r="D881" s="1" t="s">
+        <v>4346</v>
+      </c>
+      <c r="E881" s="1" t="s">
+        <v>4347</v>
+      </c>
+      <c r="F881" s="1" t="s">
+        <v>4348</v>
+      </c>
+    </row>
+    <row r="882" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A882">
+        <v>881</v>
+      </c>
+      <c r="B882" t="s">
+        <v>4214</v>
+      </c>
+      <c r="C882" s="1" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D882" s="1" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E882" s="1" t="s">
+        <v>4351</v>
+      </c>
+      <c r="F882" s="1" t="s">
+        <v>4352</v>
+      </c>
+    </row>
+    <row r="883" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A883">
+        <v>882</v>
+      </c>
+      <c r="B883" t="s">
+        <v>4215</v>
+      </c>
+      <c r="C883" s="1" t="s">
+        <v>4353</v>
+      </c>
+      <c r="D883" s="1" t="s">
+        <v>4354</v>
+      </c>
+      <c r="E883" s="1" t="s">
+        <v>4355</v>
+      </c>
+      <c r="F883" s="1" t="s">
+        <v>4356</v>
+      </c>
+    </row>
+    <row r="884" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A884">
+        <v>883</v>
+      </c>
+      <c r="B884" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C884" s="1" t="s">
+        <v>4357</v>
+      </c>
+      <c r="D884" s="1" t="s">
+        <v>4358</v>
+      </c>
+      <c r="E884" s="1" t="s">
+        <v>4359</v>
+      </c>
+      <c r="F884" s="1" t="s">
+        <v>4360</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
